--- a/wechat_data/李尚龙_0_100.xlsx
+++ b/wechat_data/李尚龙_0_100.xlsx
@@ -705,9 +705,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
